--- a/koshien/finalist2018-2020.xlsx
+++ b/koshien/finalist2018-2020.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="338">
   <si>
     <t>2018年</t>
     <rPh sb="4" eb="5">
@@ -1350,19 +1350,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大阪学院高</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガクイン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>北大会</t>
     <rPh sb="0" eb="1">
       <t>キタ</t>
@@ -1754,13 +1741,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>桜ヶ丘</t>
-    <rPh sb="0" eb="3">
-      <t>サクラガオカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山口</t>
     <rPh sb="0" eb="2">
       <t>ヤマグチ</t>
@@ -2576,6 +2556,21 @@
     <rPh sb="8" eb="10">
       <t>ケッショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明桜（→ノースアジア大明桜）</t>
+    <rPh sb="0" eb="2">
+      <t>メイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大阪学院大</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桜ケ丘</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3563,31 +3558,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3894,48 +3889,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="E3" s="151"/>
+      <c r="F3" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="G3" s="152"/>
+      <c r="H3" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="152" t="s">
+      <c r="I3" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="150" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="F4" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="151"/>
-      <c r="I4" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H4" s="154"/>
+      <c r="I4" s="156"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -4013,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4027,44 +4022,44 @@
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="E9" s="151"/>
+      <c r="F9" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="G9" s="152"/>
+      <c r="H9" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="152" t="s">
+      <c r="I9" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="150" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I9" s="148" t="s">
+      <c r="F10" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H10" s="154"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
@@ -4142,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4156,44 +4151,44 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="E15" s="151"/>
+      <c r="F15" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="G15" s="152"/>
+      <c r="H15" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="152" t="s">
+      <c r="I15" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G15" s="153"/>
-      <c r="H15" s="150" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I15" s="148" t="s">
+      <c r="F16" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="151"/>
-      <c r="I16" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H16" s="154"/>
+      <c r="I16" s="156"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
@@ -4271,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4285,44 +4280,44 @@
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="E21" s="151"/>
+      <c r="F21" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="G21" s="152"/>
+      <c r="H21" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="152" t="s">
+      <c r="I21" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G21" s="153"/>
-      <c r="H21" s="150" t="s">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I21" s="148" t="s">
+      <c r="F22" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H22" s="154"/>
+      <c r="I22" s="156"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
@@ -4400,7 +4395,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4414,44 +4409,44 @@
       <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="E27" s="151"/>
+      <c r="F27" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="G27" s="152"/>
+      <c r="H27" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="152" t="s">
+      <c r="I27" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="150" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I27" s="148" t="s">
+      <c r="F28" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="151"/>
-      <c r="I28" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H28" s="154"/>
+      <c r="I28" s="156"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
@@ -4470,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>27</v>
+        <v>335</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>2</v>
@@ -4529,7 +4524,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4543,44 +4538,44 @@
       <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="E33" s="151"/>
+      <c r="F33" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="152" t="s">
+      <c r="G33" s="152"/>
+      <c r="H33" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="154"/>
-      <c r="F33" s="152" t="s">
+      <c r="I33" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="153"/>
-      <c r="H33" s="150" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I33" s="148" t="s">
+      <c r="F34" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H34" s="154"/>
+      <c r="I34" s="156"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
@@ -4658,7 +4653,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4672,44 +4667,44 @@
       <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="155" t="s">
+      <c r="E39" s="151"/>
+      <c r="F39" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="152" t="s">
+      <c r="G39" s="152"/>
+      <c r="H39" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E39" s="154"/>
-      <c r="F39" s="152" t="s">
+      <c r="I39" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="153"/>
-      <c r="H39" s="150" t="s">
+    </row>
+    <row r="40" spans="1:9">
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I39" s="148" t="s">
+      <c r="F40" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H40" s="151"/>
-      <c r="I40" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H40" s="154"/>
+      <c r="I40" s="156"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
@@ -4787,7 +4782,7 @@
         <v>23</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4801,44 +4796,44 @@
       <c r="I44" s="36"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="E45" s="151"/>
+      <c r="F45" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D45" s="152" t="s">
+      <c r="G45" s="152"/>
+      <c r="H45" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E45" s="154"/>
-      <c r="F45" s="152" t="s">
+      <c r="I45" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G45" s="153"/>
-      <c r="H45" s="150" t="s">
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I45" s="148" t="s">
+      <c r="F46" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G46" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H46" s="151"/>
-      <c r="I46" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H46" s="154"/>
+      <c r="I46" s="156"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
@@ -4916,7 +4911,7 @@
         <v>46</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4930,44 +4925,44 @@
       <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C51" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C51" s="155" t="s">
+      <c r="E51" s="151"/>
+      <c r="F51" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D51" s="152" t="s">
+      <c r="G51" s="152"/>
+      <c r="H51" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E51" s="154"/>
-      <c r="F51" s="152" t="s">
+      <c r="I51" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G51" s="153"/>
-      <c r="H51" s="150" t="s">
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="149"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I51" s="148" t="s">
+      <c r="F52" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H52" s="151"/>
-      <c r="I52" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H52" s="154"/>
+      <c r="I52" s="156"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
@@ -5037,7 +5032,7 @@
         <v>62</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5051,44 +5046,44 @@
       <c r="I56" s="36"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C57" s="155" t="s">
+      <c r="E57" s="151"/>
+      <c r="F57" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D57" s="152" t="s">
+      <c r="G57" s="152"/>
+      <c r="H57" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E57" s="154"/>
-      <c r="F57" s="152" t="s">
+      <c r="I57" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G57" s="153"/>
-      <c r="H57" s="150" t="s">
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I57" s="148" t="s">
+      <c r="F58" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="B58" s="156"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G58" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H58" s="151"/>
-      <c r="I58" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H58" s="154"/>
+      <c r="I58" s="156"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
@@ -5158,7 +5153,7 @@
         <v>63</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5172,44 +5167,44 @@
       <c r="I62" s="36"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C63" s="155" t="s">
+      <c r="E63" s="151"/>
+      <c r="F63" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D63" s="152" t="s">
+      <c r="G63" s="152"/>
+      <c r="H63" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="154"/>
-      <c r="F63" s="152" t="s">
+      <c r="I63" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G63" s="153"/>
-      <c r="H63" s="150" t="s">
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I63" s="148" t="s">
+      <c r="F64" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G64" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H64" s="151"/>
-      <c r="I64" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H64" s="154"/>
+      <c r="I64" s="156"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
@@ -5287,7 +5282,7 @@
         <v>56</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5301,44 +5296,44 @@
       <c r="I68" s="36"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D69" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C69" s="155" t="s">
+      <c r="E69" s="151"/>
+      <c r="F69" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D69" s="152" t="s">
+      <c r="G69" s="152"/>
+      <c r="H69" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E69" s="154"/>
-      <c r="F69" s="152" t="s">
+      <c r="I69" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="153"/>
-      <c r="H69" s="150" t="s">
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="149"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I69" s="148" t="s">
+      <c r="F70" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="B70" s="156"/>
-      <c r="C70" s="156"/>
-      <c r="D70" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G70" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H70" s="151"/>
-      <c r="I70" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H70" s="154"/>
+      <c r="I70" s="156"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
@@ -5445,7 +5440,7 @@
         <v>56</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5459,44 +5454,44 @@
       <c r="I75" s="36"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="B76" s="155" t="s">
+      <c r="B76" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="155" t="s">
+      <c r="E76" s="151"/>
+      <c r="F76" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D76" s="152" t="s">
+      <c r="G76" s="152"/>
+      <c r="H76" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E76" s="154"/>
-      <c r="F76" s="152" t="s">
+      <c r="I76" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G76" s="153"/>
-      <c r="H76" s="150" t="s">
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77" s="149"/>
+      <c r="C77" s="149"/>
+      <c r="D77" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I76" s="148" t="s">
+      <c r="F77" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G77" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H77" s="151"/>
-      <c r="I77" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H77" s="154"/>
+      <c r="I77" s="156"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
@@ -5603,7 +5598,7 @@
         <v>56</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5617,44 +5612,44 @@
       <c r="I82" s="36"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="B83" s="155" t="s">
+      <c r="B83" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="155" t="s">
+      <c r="E83" s="151"/>
+      <c r="F83" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="152" t="s">
+      <c r="G83" s="152"/>
+      <c r="H83" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E83" s="154"/>
-      <c r="F83" s="152" t="s">
+      <c r="I83" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G83" s="153"/>
-      <c r="H83" s="150" t="s">
+    </row>
+    <row r="84" spans="1:9">
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
+      <c r="D84" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I83" s="148" t="s">
+      <c r="F84" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="B84" s="156"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G84" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H84" s="151"/>
-      <c r="I84" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H84" s="154"/>
+      <c r="I84" s="156"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
@@ -5732,7 +5727,7 @@
         <v>56</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5746,44 +5741,44 @@
       <c r="I88" s="36"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="B89" s="155" t="s">
+      <c r="B89" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C89" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C89" s="155" t="s">
+      <c r="E89" s="151"/>
+      <c r="F89" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D89" s="152" t="s">
+      <c r="G89" s="152"/>
+      <c r="H89" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E89" s="154"/>
-      <c r="F89" s="152" t="s">
+      <c r="I89" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G89" s="153"/>
-      <c r="H89" s="150" t="s">
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" s="149"/>
+      <c r="C90" s="149"/>
+      <c r="D90" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I89" s="148" t="s">
+      <c r="F90" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G90" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H90" s="151"/>
-      <c r="I90" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H90" s="154"/>
+      <c r="I90" s="156"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
@@ -5861,7 +5856,7 @@
         <v>56</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5875,44 +5870,44 @@
       <c r="I94" s="36"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="B95" s="155" t="s">
+      <c r="B95" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="155" t="s">
+      <c r="E95" s="151"/>
+      <c r="F95" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D95" s="152" t="s">
+      <c r="G95" s="152"/>
+      <c r="H95" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E95" s="154"/>
-      <c r="F95" s="152" t="s">
+      <c r="I95" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G95" s="153"/>
-      <c r="H95" s="150" t="s">
+    </row>
+    <row r="96" spans="1:9">
+      <c r="B96" s="149"/>
+      <c r="C96" s="149"/>
+      <c r="D96" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I95" s="148" t="s">
+      <c r="F96" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="B96" s="156"/>
-      <c r="C96" s="156"/>
-      <c r="D96" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G96" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H96" s="151"/>
-      <c r="I96" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H96" s="154"/>
+      <c r="I96" s="156"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
@@ -6019,7 +6014,7 @@
         <v>111</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6033,44 +6028,44 @@
       <c r="I101" s="36"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="155" t="s">
+      <c r="E102" s="151"/>
+      <c r="F102" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="152" t="s">
+      <c r="G102" s="152"/>
+      <c r="H102" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E102" s="154"/>
-      <c r="F102" s="152" t="s">
+      <c r="I102" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G102" s="153"/>
-      <c r="H102" s="150" t="s">
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" s="149"/>
+      <c r="C103" s="149"/>
+      <c r="D103" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I102" s="148" t="s">
+      <c r="F103" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="B103" s="156"/>
-      <c r="C103" s="156"/>
-      <c r="D103" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G103" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H103" s="151"/>
-      <c r="I103" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H103" s="154"/>
+      <c r="I103" s="156"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
@@ -6148,7 +6143,7 @@
         <v>23</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6162,44 +6157,44 @@
       <c r="I107" s="36"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="B108" s="155" t="s">
+      <c r="B108" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="155" t="s">
+      <c r="E108" s="151"/>
+      <c r="F108" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D108" s="152" t="s">
+      <c r="G108" s="152"/>
+      <c r="H108" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E108" s="154"/>
-      <c r="F108" s="152" t="s">
+      <c r="I108" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G108" s="153"/>
-      <c r="H108" s="150" t="s">
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="149"/>
+      <c r="C109" s="149"/>
+      <c r="D109" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I108" s="148" t="s">
+      <c r="F109" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="B109" s="156"/>
-      <c r="C109" s="156"/>
-      <c r="D109" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G109" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H109" s="151"/>
-      <c r="I109" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H109" s="154"/>
+      <c r="I109" s="156"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
@@ -6277,7 +6272,7 @@
         <v>23</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6291,44 +6286,44 @@
       <c r="I113" s="36"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="B114" s="155" t="s">
+      <c r="B114" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D114" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="155" t="s">
+      <c r="E114" s="151"/>
+      <c r="F114" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D114" s="152" t="s">
+      <c r="G114" s="152"/>
+      <c r="H114" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E114" s="154"/>
-      <c r="F114" s="152" t="s">
+      <c r="I114" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G114" s="153"/>
-      <c r="H114" s="150" t="s">
+    </row>
+    <row r="115" spans="1:9">
+      <c r="B115" s="149"/>
+      <c r="C115" s="149"/>
+      <c r="D115" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I114" s="148" t="s">
+      <c r="F115" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="B115" s="156"/>
-      <c r="C115" s="156"/>
-      <c r="D115" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G115" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H115" s="151"/>
-      <c r="I115" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H115" s="154"/>
+      <c r="I115" s="156"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
@@ -6406,7 +6401,7 @@
         <v>56</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6420,44 +6415,44 @@
       <c r="I119" s="36"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="B120" s="155" t="s">
+      <c r="B120" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="155" t="s">
+      <c r="E120" s="151"/>
+      <c r="F120" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D120" s="152" t="s">
+      <c r="G120" s="152"/>
+      <c r="H120" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E120" s="154"/>
-      <c r="F120" s="152" t="s">
+      <c r="I120" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G120" s="153"/>
-      <c r="H120" s="150" t="s">
+    </row>
+    <row r="121" spans="1:9">
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I120" s="148" t="s">
+      <c r="F121" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="B121" s="156"/>
-      <c r="C121" s="156"/>
-      <c r="D121" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G121" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H121" s="151"/>
-      <c r="I121" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H121" s="154"/>
+      <c r="I121" s="156"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
@@ -6535,7 +6530,7 @@
         <v>134</v>
       </c>
       <c r="I124" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6549,44 +6544,44 @@
       <c r="I125" s="36"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="B126" s="155" t="s">
+      <c r="B126" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C126" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D126" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C126" s="155" t="s">
+      <c r="E126" s="151"/>
+      <c r="F126" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D126" s="152" t="s">
+      <c r="G126" s="152"/>
+      <c r="H126" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E126" s="154"/>
-      <c r="F126" s="152" t="s">
+      <c r="I126" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G126" s="153"/>
-      <c r="H126" s="150" t="s">
+    </row>
+    <row r="127" spans="1:9">
+      <c r="B127" s="149"/>
+      <c r="C127" s="149"/>
+      <c r="D127" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I126" s="148" t="s">
+      <c r="F127" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="B127" s="156"/>
-      <c r="C127" s="156"/>
-      <c r="D127" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G127" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H127" s="151"/>
-      <c r="I127" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H127" s="154"/>
+      <c r="I127" s="156"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
@@ -6693,7 +6688,7 @@
         <v>23</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6707,44 +6702,44 @@
       <c r="I132" s="36"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="B133" s="155" t="s">
+      <c r="B133" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C133" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C133" s="155" t="s">
+      <c r="E133" s="151"/>
+      <c r="F133" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D133" s="152" t="s">
+      <c r="G133" s="152"/>
+      <c r="H133" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E133" s="154"/>
-      <c r="F133" s="152" t="s">
+      <c r="I133" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G133" s="153"/>
-      <c r="H133" s="150" t="s">
+    </row>
+    <row r="134" spans="1:9">
+      <c r="B134" s="149"/>
+      <c r="C134" s="149"/>
+      <c r="D134" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I133" s="148" t="s">
+      <c r="F134" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="B134" s="156"/>
-      <c r="C134" s="156"/>
-      <c r="D134" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G134" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H134" s="151"/>
-      <c r="I134" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H134" s="154"/>
+      <c r="I134" s="156"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
@@ -6822,7 +6817,7 @@
         <v>23</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6836,44 +6831,44 @@
       <c r="I138" s="36"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="B139" s="155" t="s">
+      <c r="B139" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C139" s="155" t="s">
+      <c r="E139" s="151"/>
+      <c r="F139" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D139" s="152" t="s">
+      <c r="G139" s="152"/>
+      <c r="H139" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E139" s="154"/>
-      <c r="F139" s="152" t="s">
+      <c r="I139" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G139" s="153"/>
-      <c r="H139" s="150" t="s">
+    </row>
+    <row r="140" spans="1:9">
+      <c r="B140" s="149"/>
+      <c r="C140" s="149"/>
+      <c r="D140" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I139" s="148" t="s">
+      <c r="F140" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="B140" s="156"/>
-      <c r="C140" s="156"/>
-      <c r="D140" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G140" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H140" s="151"/>
-      <c r="I140" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H140" s="154"/>
+      <c r="I140" s="156"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
@@ -6951,7 +6946,7 @@
         <v>23</v>
       </c>
       <c r="I143" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6965,44 +6960,44 @@
       <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="B145" s="155" t="s">
+      <c r="B145" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C145" s="155" t="s">
+      <c r="E145" s="151"/>
+      <c r="F145" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D145" s="152" t="s">
+      <c r="G145" s="152"/>
+      <c r="H145" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E145" s="154"/>
-      <c r="F145" s="152" t="s">
+      <c r="I145" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G145" s="153"/>
-      <c r="H145" s="150" t="s">
+    </row>
+    <row r="146" spans="1:9">
+      <c r="B146" s="149"/>
+      <c r="C146" s="149"/>
+      <c r="D146" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E146" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I145" s="148" t="s">
+      <c r="F146" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="B146" s="156"/>
-      <c r="C146" s="156"/>
-      <c r="D146" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G146" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H146" s="151"/>
-      <c r="I146" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H146" s="154"/>
+      <c r="I146" s="156"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
@@ -7080,7 +7075,7 @@
         <v>23</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7094,44 +7089,44 @@
       <c r="I150" s="36"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="B151" s="155" t="s">
+      <c r="B151" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D151" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C151" s="155" t="s">
+      <c r="E151" s="151"/>
+      <c r="F151" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D151" s="152" t="s">
+      <c r="G151" s="152"/>
+      <c r="H151" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E151" s="154"/>
-      <c r="F151" s="152" t="s">
+      <c r="I151" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G151" s="153"/>
-      <c r="H151" s="150" t="s">
+    </row>
+    <row r="152" spans="1:9">
+      <c r="B152" s="149"/>
+      <c r="C152" s="149"/>
+      <c r="D152" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I151" s="148" t="s">
+      <c r="F152" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="B152" s="156"/>
-      <c r="C152" s="156"/>
-      <c r="D152" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G152" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H152" s="151"/>
-      <c r="I152" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H152" s="154"/>
+      <c r="I152" s="156"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
@@ -7209,7 +7204,7 @@
         <v>11</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7223,44 +7218,44 @@
       <c r="I156" s="36"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="B157" s="155" t="s">
+      <c r="B157" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="155" t="s">
+      <c r="E157" s="151"/>
+      <c r="F157" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="152" t="s">
+      <c r="G157" s="152"/>
+      <c r="H157" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E157" s="154"/>
-      <c r="F157" s="152" t="s">
+      <c r="I157" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G157" s="153"/>
-      <c r="H157" s="150" t="s">
+    </row>
+    <row r="158" spans="1:9">
+      <c r="B158" s="149"/>
+      <c r="C158" s="149"/>
+      <c r="D158" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I157" s="148" t="s">
+      <c r="F158" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="B158" s="156"/>
-      <c r="C158" s="156"/>
-      <c r="D158" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G158" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H158" s="151"/>
-      <c r="I158" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H158" s="154"/>
+      <c r="I158" s="156"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
@@ -7338,7 +7333,7 @@
         <v>11</v>
       </c>
       <c r="I161" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7352,44 +7347,44 @@
       <c r="I162" s="36"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="B163" s="155" t="s">
+      <c r="B163" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C163" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D163" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C163" s="155" t="s">
+      <c r="E163" s="151"/>
+      <c r="F163" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D163" s="152" t="s">
+      <c r="G163" s="152"/>
+      <c r="H163" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E163" s="154"/>
-      <c r="F163" s="152" t="s">
+      <c r="I163" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G163" s="153"/>
-      <c r="H163" s="150" t="s">
+    </row>
+    <row r="164" spans="1:9">
+      <c r="B164" s="149"/>
+      <c r="C164" s="149"/>
+      <c r="D164" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I163" s="148" t="s">
+      <c r="F164" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="B164" s="156"/>
-      <c r="C164" s="156"/>
-      <c r="D164" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G164" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H164" s="151"/>
-      <c r="I164" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H164" s="154"/>
+      <c r="I164" s="156"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
@@ -7467,7 +7462,7 @@
         <v>23</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7481,44 +7476,44 @@
       <c r="I168" s="36"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="B169" s="155" t="s">
+      <c r="B169" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C169" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C169" s="155" t="s">
+      <c r="E169" s="151"/>
+      <c r="F169" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D169" s="152" t="s">
+      <c r="G169" s="152"/>
+      <c r="H169" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E169" s="154"/>
-      <c r="F169" s="152" t="s">
+      <c r="I169" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G169" s="153"/>
-      <c r="H169" s="150" t="s">
+    </row>
+    <row r="170" spans="1:9">
+      <c r="B170" s="149"/>
+      <c r="C170" s="149"/>
+      <c r="D170" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I169" s="148" t="s">
+      <c r="F170" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="B170" s="156"/>
-      <c r="C170" s="156"/>
-      <c r="D170" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F170" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G170" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H170" s="151"/>
-      <c r="I170" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H170" s="154"/>
+      <c r="I170" s="156"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
@@ -7588,7 +7583,7 @@
         <v>183</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7602,48 +7597,48 @@
       <c r="I174" s="36"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="B175" s="155" t="s">
+      <c r="B175" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C175" s="155" t="s">
+      <c r="E175" s="151"/>
+      <c r="F175" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D175" s="152" t="s">
+      <c r="G175" s="152"/>
+      <c r="H175" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E175" s="154"/>
-      <c r="F175" s="152" t="s">
+      <c r="I175" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G175" s="153"/>
-      <c r="H175" s="150" t="s">
+    </row>
+    <row r="176" spans="1:9">
+      <c r="B176" s="149"/>
+      <c r="C176" s="149"/>
+      <c r="D176" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I175" s="148" t="s">
+      <c r="F176" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="B176" s="156"/>
-      <c r="C176" s="156"/>
-      <c r="D176" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G176" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H176" s="151"/>
-      <c r="I176" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H176" s="154"/>
+      <c r="I176" s="156"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B177" s="56" t="s">
         <v>0</v>
@@ -7658,19 +7653,19 @@
         <v>2</v>
       </c>
       <c r="F177" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="G177" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" s="81" t="s">
         <v>185</v>
-      </c>
-      <c r="G177" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="H177" s="81" t="s">
-        <v>186</v>
       </c>
       <c r="I177" s="56"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B178" s="15" t="s">
         <v>0</v>
@@ -7679,25 +7674,25 @@
         <v>87</v>
       </c>
       <c r="D178" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E178" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F178" s="17" t="s">
+      <c r="G178" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" s="84" t="s">
         <v>188</v>
-      </c>
-      <c r="G178" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H178" s="84" t="s">
-        <v>189</v>
       </c>
       <c r="I178" s="15"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>6</v>
@@ -7706,13 +7701,13 @@
         <v>174</v>
       </c>
       <c r="D179" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="E179" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="G179" s="19" t="s">
         <v>2</v>
@@ -7722,7 +7717,7 @@
     </row>
     <row r="180" spans="1:9" ht="39">
       <c r="A180" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B180" s="22" t="s">
         <v>9</v>
@@ -7731,22 +7726,22 @@
         <v>169</v>
       </c>
       <c r="D180" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F180" s="147" t="s">
         <v>332</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="G180" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="F180" s="147" t="s">
-        <v>334</v>
-      </c>
-      <c r="G180" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H180" s="75" t="s">
-        <v>335</v>
-      </c>
       <c r="I180" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7760,48 +7755,48 @@
       <c r="I181" s="36"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="B182" s="155" t="s">
+      <c r="B182" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D182" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C182" s="155" t="s">
+      <c r="E182" s="151"/>
+      <c r="F182" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D182" s="152" t="s">
+      <c r="G182" s="152"/>
+      <c r="H182" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E182" s="154"/>
-      <c r="F182" s="152" t="s">
+      <c r="I182" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G182" s="153"/>
-      <c r="H182" s="150" t="s">
+    </row>
+    <row r="183" spans="1:9">
+      <c r="B183" s="149"/>
+      <c r="C183" s="149"/>
+      <c r="D183" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I182" s="148" t="s">
+      <c r="F183" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="B183" s="156"/>
-      <c r="C183" s="156"/>
-      <c r="D183" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G183" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H183" s="151"/>
-      <c r="I183" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H183" s="154"/>
+      <c r="I183" s="156"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B184" s="56" t="s">
         <v>0</v>
@@ -7810,13 +7805,13 @@
         <v>72</v>
       </c>
       <c r="D184" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E184" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" s="58" t="s">
         <v>193</v>
-      </c>
-      <c r="E184" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" s="58" t="s">
-        <v>194</v>
       </c>
       <c r="G184" s="60" t="s">
         <v>8</v>
@@ -7828,7 +7823,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185" s="15" t="s">
         <v>0</v>
@@ -7837,13 +7832,13 @@
         <v>90</v>
       </c>
       <c r="D185" s="82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E185" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F185" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>26</v>
@@ -7855,7 +7850,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B186" s="15" t="s">
         <v>6</v>
@@ -7864,13 +7859,13 @@
         <v>161</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E186" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F186" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G186" s="19" t="s">
         <v>2</v>
@@ -7880,7 +7875,7 @@
     </row>
     <row r="187" spans="1:9" ht="26">
       <c r="A187" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B187" s="22" t="s">
         <v>9</v>
@@ -7893,10 +7888,10 @@
       <c r="F187" s="24"/>
       <c r="G187" s="26"/>
       <c r="H187" s="75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7910,48 +7905,48 @@
       <c r="I188" s="36"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="B189" s="155" t="s">
+      <c r="B189" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C189" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D189" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C189" s="155" t="s">
+      <c r="E189" s="151"/>
+      <c r="F189" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D189" s="152" t="s">
+      <c r="G189" s="152"/>
+      <c r="H189" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E189" s="154"/>
-      <c r="F189" s="152" t="s">
+      <c r="I189" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G189" s="153"/>
-      <c r="H189" s="150" t="s">
+    </row>
+    <row r="190" spans="1:9">
+      <c r="B190" s="149"/>
+      <c r="C190" s="149"/>
+      <c r="D190" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I189" s="148" t="s">
+      <c r="F190" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="B190" s="156"/>
-      <c r="C190" s="156"/>
-      <c r="D190" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G190" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H190" s="151"/>
-      <c r="I190" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H190" s="154"/>
+      <c r="I190" s="156"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191" s="111" t="s">
         <v>0</v>
@@ -7960,23 +7955,23 @@
         <v>39</v>
       </c>
       <c r="D191" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="E191" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="E191" s="53" t="s">
-        <v>328</v>
-      </c>
       <c r="F191" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G191" s="76" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H191" s="13"/>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192" s="113" t="s">
         <v>6</v>
@@ -7985,13 +7980,13 @@
         <v>38</v>
       </c>
       <c r="D192" s="115" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E192" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F192" s="115" t="s">
         <v>328</v>
-      </c>
-      <c r="F192" s="115" t="s">
-        <v>330</v>
       </c>
       <c r="G192" s="116" t="s">
         <v>26</v>
@@ -8001,7 +7996,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" s="117" t="s">
         <v>9</v>
@@ -8010,22 +8005,22 @@
         <v>37</v>
       </c>
       <c r="D193" s="119" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E193" s="52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F193" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="G193" s="120" t="s">
         <v>326</v>
       </c>
-      <c r="G193" s="120" t="s">
-        <v>328</v>
-      </c>
       <c r="H193" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8039,48 +8034,48 @@
       <c r="I194" s="36"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="B195" s="155" t="s">
+      <c r="B195" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C195" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D195" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C195" s="155" t="s">
+      <c r="E195" s="151"/>
+      <c r="F195" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D195" s="152" t="s">
+      <c r="G195" s="152"/>
+      <c r="H195" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E195" s="154"/>
-      <c r="F195" s="152" t="s">
+      <c r="I195" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G195" s="153"/>
-      <c r="H195" s="150" t="s">
+    </row>
+    <row r="196" spans="1:9">
+      <c r="B196" s="149"/>
+      <c r="C196" s="149"/>
+      <c r="D196" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E196" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I195" s="148" t="s">
+      <c r="F196" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="B196" s="156"/>
-      <c r="C196" s="156"/>
-      <c r="D196" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G196" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H196" s="151"/>
-      <c r="I196" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H196" s="154"/>
+      <c r="I196" s="156"/>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B197" s="111" t="s">
         <v>0</v>
@@ -8089,13 +8084,13 @@
         <v>39</v>
       </c>
       <c r="D197" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="E197" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" s="121" t="s">
         <v>201</v>
-      </c>
-      <c r="E197" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F197" s="121" t="s">
-        <v>202</v>
       </c>
       <c r="G197" s="60" t="s">
         <v>8</v>
@@ -8105,7 +8100,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B198" s="113" t="s">
         <v>6</v>
@@ -8114,13 +8109,13 @@
         <v>39</v>
       </c>
       <c r="D198" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="E198" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F198" s="122" t="s">
         <v>203</v>
-      </c>
-      <c r="E198" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F198" s="122" t="s">
-        <v>204</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>8</v>
@@ -8130,7 +8125,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" s="117" t="s">
         <v>9</v>
@@ -8139,13 +8134,13 @@
         <v>39</v>
       </c>
       <c r="D199" s="123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E199" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="123" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G199" s="26" t="s">
         <v>2</v>
@@ -8154,7 +8149,7 @@
         <v>23</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8168,48 +8163,48 @@
       <c r="I200" s="36"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="B201" s="155" t="s">
+      <c r="B201" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C201" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D201" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="155" t="s">
+      <c r="E201" s="151"/>
+      <c r="F201" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D201" s="152" t="s">
+      <c r="G201" s="152"/>
+      <c r="H201" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E201" s="154"/>
-      <c r="F201" s="152" t="s">
+      <c r="I201" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G201" s="153"/>
-      <c r="H201" s="150" t="s">
+    </row>
+    <row r="202" spans="1:9">
+      <c r="B202" s="149"/>
+      <c r="C202" s="149"/>
+      <c r="D202" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I201" s="148" t="s">
+      <c r="F202" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="B202" s="156"/>
-      <c r="C202" s="156"/>
-      <c r="D202" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G202" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H202" s="151"/>
-      <c r="I202" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H202" s="154"/>
+      <c r="I202" s="156"/>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>0</v>
@@ -8218,13 +8213,13 @@
         <v>59</v>
       </c>
       <c r="D203" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E203" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F203" s="58" t="s">
         <v>207</v>
-      </c>
-      <c r="E203" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F203" s="58" t="s">
-        <v>208</v>
       </c>
       <c r="G203" s="60" t="s">
         <v>2</v>
@@ -8234,7 +8229,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>6</v>
@@ -8243,13 +8238,13 @@
         <v>59</v>
       </c>
       <c r="D204" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E204" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F204" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="E204" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F204" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="G204" s="19" t="s">
         <v>26</v>
@@ -8259,7 +8254,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" s="22" t="s">
         <v>9</v>
@@ -8268,13 +8263,13 @@
         <v>58</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E205" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G205" s="26" t="s">
         <v>2</v>
@@ -8283,7 +8278,7 @@
         <v>23</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -8297,48 +8292,48 @@
       <c r="I206" s="36"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="B207" s="155" t="s">
+      <c r="B207" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C207" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C207" s="155" t="s">
+      <c r="E207" s="151"/>
+      <c r="F207" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D207" s="152" t="s">
+      <c r="G207" s="152"/>
+      <c r="H207" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E207" s="154"/>
-      <c r="F207" s="152" t="s">
+      <c r="I207" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G207" s="153"/>
-      <c r="H207" s="150" t="s">
+    </row>
+    <row r="208" spans="1:9">
+      <c r="B208" s="149"/>
+      <c r="C208" s="149"/>
+      <c r="D208" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I207" s="148" t="s">
+      <c r="F208" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="B208" s="156"/>
-      <c r="C208" s="156"/>
-      <c r="D208" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G208" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H208" s="151"/>
-      <c r="I208" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H208" s="154"/>
+      <c r="I208" s="156"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B209" s="56" t="s">
         <v>0</v>
@@ -8347,13 +8342,13 @@
         <v>88</v>
       </c>
       <c r="D209" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="E209" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" s="58" t="s">
         <v>212</v>
-      </c>
-      <c r="E209" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F209" s="58" t="s">
-        <v>213</v>
       </c>
       <c r="G209" s="60" t="s">
         <v>2</v>
@@ -8363,7 +8358,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>6</v>
@@ -8372,13 +8367,13 @@
         <v>90</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E210" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G210" s="19" t="s">
         <v>2</v>
@@ -8388,7 +8383,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" s="22" t="s">
         <v>9</v>
@@ -8397,13 +8392,13 @@
         <v>88</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E211" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F211" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G211" s="26" t="s">
         <v>2</v>
@@ -8412,7 +8407,7 @@
         <v>23</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8426,48 +8421,48 @@
       <c r="I212" s="36"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="B213" s="155" t="s">
+      <c r="B213" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C213" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D213" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C213" s="155" t="s">
+      <c r="E213" s="151"/>
+      <c r="F213" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D213" s="152" t="s">
+      <c r="G213" s="152"/>
+      <c r="H213" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E213" s="154"/>
-      <c r="F213" s="152" t="s">
+      <c r="I213" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G213" s="153"/>
-      <c r="H213" s="150" t="s">
+    </row>
+    <row r="214" spans="1:9">
+      <c r="B214" s="149"/>
+      <c r="C214" s="149"/>
+      <c r="D214" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I213" s="148" t="s">
+      <c r="F214" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="B214" s="156"/>
-      <c r="C214" s="156"/>
-      <c r="D214" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G214" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H214" s="151"/>
-      <c r="I214" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H214" s="154"/>
+      <c r="I214" s="156"/>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B215" s="111" t="s">
         <v>0</v>
@@ -8476,13 +8471,13 @@
         <v>24</v>
       </c>
       <c r="D215" s="121" t="s">
+        <v>218</v>
+      </c>
+      <c r="E215" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F215" s="121" t="s">
         <v>219</v>
-      </c>
-      <c r="E215" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F215" s="121" t="s">
-        <v>220</v>
       </c>
       <c r="G215" s="60" t="s">
         <v>8</v>
@@ -8492,7 +8487,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B216" s="113" t="s">
         <v>6</v>
@@ -8501,13 +8496,13 @@
         <v>23</v>
       </c>
       <c r="D216" s="122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E216" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G216" s="19" t="s">
         <v>2</v>
@@ -8517,7 +8512,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B217" s="117" t="s">
         <v>9</v>
@@ -8526,13 +8521,13 @@
         <v>22</v>
       </c>
       <c r="D217" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E217" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F217" s="123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G217" s="26" t="s">
         <v>2</v>
@@ -8541,7 +8536,7 @@
         <v>11</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -8555,48 +8550,48 @@
       <c r="I218" s="36"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="B219" s="155" t="s">
+      <c r="B219" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C219" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D219" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C219" s="155" t="s">
+      <c r="E219" s="151"/>
+      <c r="F219" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D219" s="152" t="s">
+      <c r="G219" s="152"/>
+      <c r="H219" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E219" s="154"/>
-      <c r="F219" s="152" t="s">
+      <c r="I219" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G219" s="153"/>
-      <c r="H219" s="150" t="s">
+    </row>
+    <row r="220" spans="1:9">
+      <c r="B220" s="149"/>
+      <c r="C220" s="149"/>
+      <c r="D220" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E220" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I219" s="148" t="s">
+      <c r="F220" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="B220" s="156"/>
-      <c r="C220" s="156"/>
-      <c r="D220" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F220" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G220" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H220" s="151"/>
-      <c r="I220" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H220" s="154"/>
+      <c r="I220" s="156"/>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B221" s="111" t="s">
         <v>0</v>
@@ -8605,13 +8600,13 @@
         <v>39</v>
       </c>
       <c r="D221" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="E221" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" s="121" t="s">
         <v>226</v>
-      </c>
-      <c r="E221" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F221" s="121" t="s">
-        <v>227</v>
       </c>
       <c r="G221" s="60" t="s">
         <v>2</v>
@@ -8621,7 +8616,7 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B222" s="113" t="s">
         <v>6</v>
@@ -8630,13 +8625,13 @@
         <v>39</v>
       </c>
       <c r="D222" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F222" s="122" t="s">
         <v>228</v>
-      </c>
-      <c r="E222" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F222" s="122" t="s">
-        <v>229</v>
       </c>
       <c r="G222" s="19" t="s">
         <v>2</v>
@@ -8646,7 +8641,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223" s="117" t="s">
         <v>9</v>
@@ -8655,13 +8650,13 @@
         <v>39</v>
       </c>
       <c r="D223" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="E223" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F223" s="123" t="s">
         <v>230</v>
-      </c>
-      <c r="E223" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F223" s="123" t="s">
-        <v>231</v>
       </c>
       <c r="G223" s="26" t="s">
         <v>2</v>
@@ -8670,7 +8665,7 @@
         <v>23</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8684,48 +8679,48 @@
       <c r="I224" s="36"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="B225" s="155" t="s">
+      <c r="B225" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C225" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D225" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C225" s="155" t="s">
+      <c r="E225" s="151"/>
+      <c r="F225" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D225" s="152" t="s">
+      <c r="G225" s="152"/>
+      <c r="H225" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E225" s="154"/>
-      <c r="F225" s="152" t="s">
+      <c r="I225" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G225" s="153"/>
-      <c r="H225" s="150" t="s">
+    </row>
+    <row r="226" spans="1:9">
+      <c r="B226" s="149"/>
+      <c r="C226" s="149"/>
+      <c r="D226" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E226" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I225" s="148" t="s">
+      <c r="F226" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="B226" s="156"/>
-      <c r="C226" s="156"/>
-      <c r="D226" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G226" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H226" s="151"/>
-      <c r="I226" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H226" s="154"/>
+      <c r="I226" s="156"/>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B227" s="56" t="s">
         <v>0</v>
@@ -8734,13 +8729,13 @@
         <v>58</v>
       </c>
       <c r="D227" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E227" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F227" s="58" t="s">
         <v>233</v>
-      </c>
-      <c r="E227" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F227" s="58" t="s">
-        <v>234</v>
       </c>
       <c r="G227" s="60" t="s">
         <v>2</v>
@@ -8750,7 +8745,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>6</v>
@@ -8759,13 +8754,13 @@
         <v>58</v>
       </c>
       <c r="D228" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E228" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F228" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="E228" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F228" s="17" t="s">
-        <v>236</v>
       </c>
       <c r="G228" s="19" t="s">
         <v>8</v>
@@ -8775,7 +8770,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B229" s="22" t="s">
         <v>9</v>
@@ -8784,13 +8779,13 @@
         <v>55</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E229" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="G229" s="26" t="s">
         <v>2</v>
@@ -8799,7 +8794,7 @@
         <v>23</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8813,48 +8808,48 @@
       <c r="I230" s="36"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="B231" s="155" t="s">
+      <c r="B231" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C231" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D231" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C231" s="155" t="s">
+      <c r="E231" s="151"/>
+      <c r="F231" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D231" s="152" t="s">
+      <c r="G231" s="152"/>
+      <c r="H231" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E231" s="154"/>
-      <c r="F231" s="152" t="s">
+      <c r="I231" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G231" s="153"/>
-      <c r="H231" s="150" t="s">
+    </row>
+    <row r="232" spans="1:9">
+      <c r="B232" s="149"/>
+      <c r="C232" s="149"/>
+      <c r="D232" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E232" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I231" s="148" t="s">
+      <c r="F232" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="B232" s="156"/>
-      <c r="C232" s="156"/>
-      <c r="D232" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G232" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H232" s="151"/>
-      <c r="I232" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H232" s="154"/>
+      <c r="I232" s="156"/>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B233" s="56" t="s">
         <v>0</v>
@@ -8863,13 +8858,13 @@
         <v>38</v>
       </c>
       <c r="D233" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E233" s="61" t="s">
         <v>8</v>
       </c>
       <c r="F233" s="58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G233" s="60" t="s">
         <v>8</v>
@@ -8879,7 +8874,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>6</v>
@@ -8888,13 +8883,13 @@
         <v>38</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E234" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G234" s="19" t="s">
         <v>2</v>
@@ -8904,7 +8899,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B235" s="22" t="s">
         <v>9</v>
@@ -8913,13 +8908,13 @@
         <v>38</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E235" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G235" s="26" t="s">
         <v>26</v>
@@ -8928,7 +8923,7 @@
         <v>23</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8942,48 +8937,48 @@
       <c r="I236" s="36"/>
     </row>
     <row r="237" spans="1:9">
-      <c r="B237" s="155" t="s">
+      <c r="B237" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C237" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D237" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C237" s="155" t="s">
+      <c r="E237" s="151"/>
+      <c r="F237" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D237" s="152" t="s">
+      <c r="G237" s="152"/>
+      <c r="H237" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E237" s="154"/>
-      <c r="F237" s="152" t="s">
+      <c r="I237" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G237" s="153"/>
-      <c r="H237" s="150" t="s">
+    </row>
+    <row r="238" spans="1:9">
+      <c r="B238" s="149"/>
+      <c r="C238" s="149"/>
+      <c r="D238" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E238" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I237" s="148" t="s">
+      <c r="F238" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="B238" s="156"/>
-      <c r="C238" s="156"/>
-      <c r="D238" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G238" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H238" s="151"/>
-      <c r="I238" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H238" s="154"/>
+      <c r="I238" s="156"/>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B239" s="56" t="s">
         <v>0</v>
@@ -8992,13 +8987,13 @@
         <v>31</v>
       </c>
       <c r="D239" s="58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E239" s="61" t="s">
         <v>8</v>
       </c>
       <c r="F239" s="58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G239" s="60" t="s">
         <v>2</v>
@@ -9008,7 +9003,7 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>6</v>
@@ -9017,13 +9012,13 @@
         <v>30</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E240" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F240" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G240" s="19" t="s">
         <v>8</v>
@@ -9033,7 +9028,7 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B241" s="22" t="s">
         <v>9</v>
@@ -9042,13 +9037,13 @@
         <v>30</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F241" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G241" s="26" t="s">
         <v>26</v>
@@ -9057,7 +9052,7 @@
         <v>23</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9071,48 +9066,48 @@
       <c r="I242" s="36"/>
     </row>
     <row r="243" spans="1:9">
-      <c r="B243" s="155" t="s">
+      <c r="B243" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C243" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D243" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C243" s="155" t="s">
+      <c r="E243" s="151"/>
+      <c r="F243" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D243" s="152" t="s">
+      <c r="G243" s="152"/>
+      <c r="H243" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E243" s="154"/>
-      <c r="F243" s="152" t="s">
+      <c r="I243" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G243" s="153"/>
-      <c r="H243" s="150" t="s">
+    </row>
+    <row r="244" spans="1:9">
+      <c r="B244" s="149"/>
+      <c r="C244" s="149"/>
+      <c r="D244" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I243" s="148" t="s">
+      <c r="F244" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="B244" s="156"/>
-      <c r="C244" s="156"/>
-      <c r="D244" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G244" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H244" s="151"/>
-      <c r="I244" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H244" s="154"/>
+      <c r="I244" s="156"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B245" s="56" t="s">
         <v>0</v>
@@ -9121,13 +9116,13 @@
         <v>59</v>
       </c>
       <c r="D245" s="58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E245" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G245" s="60" t="s">
         <v>2</v>
@@ -9137,7 +9132,7 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>6</v>
@@ -9146,13 +9141,13 @@
         <v>58</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E246" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F246" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G246" s="19" t="s">
         <v>2</v>
@@ -9162,7 +9157,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B247" s="22" t="s">
         <v>9</v>
@@ -9171,13 +9166,13 @@
         <v>52</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E247" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G247" s="26" t="s">
         <v>8</v>
@@ -9186,7 +9181,7 @@
         <v>23</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -9200,48 +9195,48 @@
       <c r="I248" s="36"/>
     </row>
     <row r="249" spans="1:9">
-      <c r="B249" s="155" t="s">
+      <c r="B249" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C249" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D249" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C249" s="155" t="s">
+      <c r="E249" s="151"/>
+      <c r="F249" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D249" s="152" t="s">
+      <c r="G249" s="152"/>
+      <c r="H249" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E249" s="154"/>
-      <c r="F249" s="152" t="s">
+      <c r="I249" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G249" s="153"/>
-      <c r="H249" s="150" t="s">
+    </row>
+    <row r="250" spans="1:9">
+      <c r="B250" s="149"/>
+      <c r="C250" s="149"/>
+      <c r="D250" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E250" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I249" s="148" t="s">
+      <c r="F250" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="B250" s="156"/>
-      <c r="C250" s="156"/>
-      <c r="D250" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G250" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H250" s="151"/>
-      <c r="I250" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H250" s="154"/>
+      <c r="I250" s="156"/>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B251" s="56" t="s">
         <v>0</v>
@@ -9250,13 +9245,13 @@
         <v>28</v>
       </c>
       <c r="D251" s="58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E251" s="61" t="s">
         <v>26</v>
       </c>
       <c r="F251" s="58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G251" s="60" t="s">
         <v>2</v>
@@ -9266,7 +9261,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B252" s="15" t="s">
         <v>6</v>
@@ -9275,13 +9270,13 @@
         <v>26</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E252" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G252" s="19" t="s">
         <v>2</v>
@@ -9291,7 +9286,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B253" s="22" t="s">
         <v>9</v>
@@ -9300,13 +9295,13 @@
         <v>23</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E253" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G253" s="26" t="s">
         <v>2</v>
@@ -9315,7 +9310,7 @@
         <v>23</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -9329,48 +9324,48 @@
       <c r="I254" s="36"/>
     </row>
     <row r="255" spans="1:9">
-      <c r="B255" s="155" t="s">
+      <c r="B255" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C255" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D255" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C255" s="155" t="s">
+      <c r="E255" s="151"/>
+      <c r="F255" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D255" s="152" t="s">
+      <c r="G255" s="152"/>
+      <c r="H255" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E255" s="154"/>
-      <c r="F255" s="152" t="s">
+      <c r="I255" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G255" s="153"/>
-      <c r="H255" s="150" t="s">
+    </row>
+    <row r="256" spans="1:9">
+      <c r="B256" s="149"/>
+      <c r="C256" s="149"/>
+      <c r="D256" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E256" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I255" s="148" t="s">
+      <c r="F256" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="B256" s="156"/>
-      <c r="C256" s="156"/>
-      <c r="D256" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G256" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H256" s="151"/>
-      <c r="I256" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H256" s="154"/>
+      <c r="I256" s="156"/>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B257" s="56" t="s">
         <v>0</v>
@@ -9379,25 +9374,25 @@
         <v>63</v>
       </c>
       <c r="D257" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E257" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F257" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="E257" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="F257" s="58" t="s">
-        <v>267</v>
-      </c>
       <c r="G257" s="128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H257" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I257" s="77"/>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B258" s="15" t="s">
         <v>0</v>
@@ -9406,25 +9401,25 @@
         <v>70</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F258" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G258" s="129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H258" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I258" s="79"/>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B259" s="15" t="s">
         <v>6</v>
@@ -9433,23 +9428,23 @@
         <v>133</v>
       </c>
       <c r="D259" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E259" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F259" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E259" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="F259" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="G259" s="78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H259" s="74"/>
       <c r="I259" s="79"/>
     </row>
     <row r="260" spans="1:9" ht="26">
       <c r="A260" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B260" s="22" t="s">
         <v>9</v>
@@ -9462,10 +9457,10 @@
       <c r="F260" s="24"/>
       <c r="G260" s="80"/>
       <c r="H260" s="75" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9479,48 +9474,48 @@
       <c r="I261" s="36"/>
     </row>
     <row r="262" spans="1:9">
-      <c r="B262" s="155" t="s">
+      <c r="B262" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C262" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D262" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C262" s="155" t="s">
+      <c r="E262" s="151"/>
+      <c r="F262" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D262" s="152" t="s">
+      <c r="G262" s="152"/>
+      <c r="H262" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E262" s="154"/>
-      <c r="F262" s="152" t="s">
+      <c r="I262" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G262" s="153"/>
-      <c r="H262" s="150" t="s">
+    </row>
+    <row r="263" spans="1:9">
+      <c r="B263" s="149"/>
+      <c r="C263" s="149"/>
+      <c r="D263" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E263" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I262" s="148" t="s">
+      <c r="F263" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="B263" s="156"/>
-      <c r="C263" s="156"/>
-      <c r="D263" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F263" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G263" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H263" s="151"/>
-      <c r="I263" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H263" s="154"/>
+      <c r="I263" s="156"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B264" s="56" t="s">
         <v>0</v>
@@ -9529,13 +9524,13 @@
         <v>40</v>
       </c>
       <c r="D264" s="58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E264" s="61" t="s">
         <v>26</v>
       </c>
       <c r="F264" s="130" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G264" s="131" t="s">
         <v>26</v>
@@ -9545,7 +9540,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B265" s="15" t="s">
         <v>6</v>
@@ -9554,13 +9549,13 @@
         <v>39</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E265" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G265" s="19" t="s">
         <v>8</v>
@@ -9570,7 +9565,7 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B266" s="22" t="s">
         <v>9</v>
@@ -9579,22 +9574,22 @@
         <v>37</v>
       </c>
       <c r="D266" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E266" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F266" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="G266" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="E266" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F266" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="G266" s="26" t="s">
-        <v>281</v>
       </c>
       <c r="H266" s="132" t="s">
         <v>23</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9608,48 +9603,48 @@
       <c r="I267" s="36"/>
     </row>
     <row r="268" spans="1:9">
-      <c r="B268" s="155" t="s">
+      <c r="B268" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C268" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D268" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C268" s="155" t="s">
+      <c r="E268" s="151"/>
+      <c r="F268" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D268" s="152" t="s">
+      <c r="G268" s="152"/>
+      <c r="H268" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E268" s="154"/>
-      <c r="F268" s="152" t="s">
+      <c r="I268" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G268" s="153"/>
-      <c r="H268" s="150" t="s">
+    </row>
+    <row r="269" spans="1:9">
+      <c r="B269" s="149"/>
+      <c r="C269" s="149"/>
+      <c r="D269" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I268" s="148" t="s">
+      <c r="F269" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="B269" s="156"/>
-      <c r="C269" s="156"/>
-      <c r="D269" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G269" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H269" s="151"/>
-      <c r="I269" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H269" s="154"/>
+      <c r="I269" s="156"/>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B270" s="56" t="s">
         <v>0</v>
@@ -9658,23 +9653,23 @@
         <v>57</v>
       </c>
       <c r="D270" s="58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E270" s="61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F270" s="58" t="s">
         <v>154</v>
       </c>
       <c r="G270" s="60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H270" s="133"/>
       <c r="I270" s="14"/>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B271" s="15" t="s">
         <v>6</v>
@@ -9686,20 +9681,20 @@
         <v>154</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F271" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G271" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H271" s="134"/>
       <c r="I271" s="21"/>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B272" s="22" t="s">
         <v>9</v>
@@ -9708,13 +9703,13 @@
         <v>54</v>
       </c>
       <c r="D272" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E272" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G272" s="26" t="s">
         <v>26</v>
@@ -9723,7 +9718,7 @@
         <v>23</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9737,48 +9732,48 @@
       <c r="I273" s="36"/>
     </row>
     <row r="274" spans="1:9">
-      <c r="B274" s="155" t="s">
+      <c r="B274" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C274" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D274" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C274" s="155" t="s">
+      <c r="E274" s="151"/>
+      <c r="F274" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D274" s="152" t="s">
+      <c r="G274" s="152"/>
+      <c r="H274" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E274" s="154"/>
-      <c r="F274" s="152" t="s">
+      <c r="I274" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G274" s="153"/>
-      <c r="H274" s="150" t="s">
+    </row>
+    <row r="275" spans="1:9">
+      <c r="B275" s="149"/>
+      <c r="C275" s="149"/>
+      <c r="D275" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E275" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I274" s="148" t="s">
+      <c r="F275" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="B275" s="156"/>
-      <c r="C275" s="156"/>
-      <c r="D275" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F275" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G275" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H275" s="151"/>
-      <c r="I275" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H275" s="154"/>
+      <c r="I275" s="156"/>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B276" s="56" t="s">
         <v>0</v>
@@ -9787,13 +9782,13 @@
         <v>61</v>
       </c>
       <c r="D276" s="136" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E276" s="137" t="s">
         <v>2</v>
       </c>
       <c r="F276" s="138" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G276" s="139" t="s">
         <v>26</v>
@@ -9803,7 +9798,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B277" s="15" t="s">
         <v>6</v>
@@ -9812,13 +9807,13 @@
         <v>58</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E277" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G277" s="19" t="s">
         <v>2</v>
@@ -9828,7 +9823,7 @@
     </row>
     <row r="278" spans="1:9" ht="24">
       <c r="A278" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B278" s="22" t="s">
         <v>9</v>
@@ -9841,10 +9836,10 @@
       <c r="F278" s="24"/>
       <c r="G278" s="26"/>
       <c r="H278" s="135" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9858,48 +9853,48 @@
       <c r="I279" s="36"/>
     </row>
     <row r="280" spans="1:9">
-      <c r="B280" s="155" t="s">
+      <c r="B280" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C280" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D280" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C280" s="155" t="s">
+      <c r="E280" s="151"/>
+      <c r="F280" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D280" s="152" t="s">
+      <c r="G280" s="152"/>
+      <c r="H280" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E280" s="154"/>
-      <c r="F280" s="152" t="s">
+      <c r="I280" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G280" s="153"/>
-      <c r="H280" s="150" t="s">
+    </row>
+    <row r="281" spans="1:9">
+      <c r="B281" s="149"/>
+      <c r="C281" s="149"/>
+      <c r="D281" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E281" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I280" s="148" t="s">
+      <c r="F281" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="B281" s="156"/>
-      <c r="C281" s="156"/>
-      <c r="D281" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G281" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H281" s="151"/>
-      <c r="I281" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H281" s="154"/>
+      <c r="I281" s="156"/>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B282" s="56" t="s">
         <v>0</v>
@@ -9908,13 +9903,13 @@
         <v>45</v>
       </c>
       <c r="D282" s="58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E282" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="58" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G282" s="60" t="s">
         <v>2</v>
@@ -9924,7 +9919,7 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B283" s="15" t="s">
         <v>6</v>
@@ -9933,13 +9928,13 @@
         <v>44</v>
       </c>
       <c r="D283" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="E283" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F283" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="E283" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F283" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="G283" s="19" t="s">
         <v>26</v>
@@ -9949,7 +9944,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B284" s="22" t="s">
         <v>9</v>
@@ -9958,13 +9953,13 @@
         <v>43</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E284" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G284" s="26" t="s">
         <v>8</v>
@@ -9973,7 +9968,7 @@
         <v>23</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9987,48 +9982,48 @@
       <c r="I285" s="36"/>
     </row>
     <row r="286" spans="1:9">
-      <c r="B286" s="155" t="s">
+      <c r="B286" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C286" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D286" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C286" s="155" t="s">
+      <c r="E286" s="151"/>
+      <c r="F286" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D286" s="152" t="s">
+      <c r="G286" s="152"/>
+      <c r="H286" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E286" s="154"/>
-      <c r="F286" s="152" t="s">
+      <c r="I286" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G286" s="153"/>
-      <c r="H286" s="150" t="s">
+    </row>
+    <row r="287" spans="1:9">
+      <c r="B287" s="149"/>
+      <c r="C287" s="149"/>
+      <c r="D287" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E287" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I286" s="148" t="s">
+      <c r="F287" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="B287" s="156"/>
-      <c r="C287" s="156"/>
-      <c r="D287" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G287" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H287" s="151"/>
-      <c r="I287" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H287" s="154"/>
+      <c r="I287" s="156"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B288" s="56" t="s">
         <v>0</v>
@@ -10037,23 +10032,23 @@
         <v>48</v>
       </c>
       <c r="D288" s="140" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E288" s="141" t="s">
         <v>2</v>
       </c>
       <c r="F288" s="140" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G288" s="128" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H288" s="81"/>
       <c r="I288" s="14"/>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B289" s="15" t="s">
         <v>6</v>
@@ -10062,23 +10057,23 @@
         <v>49</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E289" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G289" s="78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H289" s="84"/>
       <c r="I289" s="21"/>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B290" s="22" t="s">
         <v>9</v>
@@ -10087,22 +10082,22 @@
         <v>46</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F290" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G290" s="80" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H290" s="142" t="s">
         <v>23</v>
       </c>
       <c r="I290" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -10116,48 +10111,48 @@
       <c r="I291" s="36"/>
     </row>
     <row r="292" spans="1:9">
-      <c r="B292" s="155" t="s">
+      <c r="B292" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C292" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D292" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C292" s="155" t="s">
+      <c r="E292" s="151"/>
+      <c r="F292" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D292" s="152" t="s">
+      <c r="G292" s="152"/>
+      <c r="H292" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E292" s="154"/>
-      <c r="F292" s="152" t="s">
+      <c r="I292" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G292" s="153"/>
-      <c r="H292" s="150" t="s">
+    </row>
+    <row r="293" spans="1:9">
+      <c r="B293" s="149"/>
+      <c r="C293" s="149"/>
+      <c r="D293" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E293" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I292" s="148" t="s">
+      <c r="F293" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="B293" s="156"/>
-      <c r="C293" s="156"/>
-      <c r="D293" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F293" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G293" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H293" s="151"/>
-      <c r="I293" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H293" s="154"/>
+      <c r="I293" s="156"/>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B294" s="56" t="s">
         <v>0</v>
@@ -10166,23 +10161,23 @@
         <v>70</v>
       </c>
       <c r="D294" s="138" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E294" s="137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F294" s="138" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G294" s="143" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H294" s="133"/>
       <c r="I294" s="14"/>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B295" s="15" t="s">
         <v>6</v>
@@ -10191,23 +10186,23 @@
         <v>70</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F295" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G295" s="78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H295" s="134"/>
       <c r="I295" s="21"/>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B296" s="22" t="s">
         <v>9</v>
@@ -10216,13 +10211,13 @@
         <v>65</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E296" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F296" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G296" s="80" t="s">
         <v>26</v>
@@ -10231,7 +10226,7 @@
         <v>23</v>
       </c>
       <c r="I296" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -10245,48 +10240,48 @@
       <c r="I297" s="36"/>
     </row>
     <row r="298" spans="1:9">
-      <c r="B298" s="155" t="s">
+      <c r="B298" s="148" t="s">
+        <v>314</v>
+      </c>
+      <c r="C298" s="148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D298" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="C298" s="155" t="s">
+      <c r="E298" s="151"/>
+      <c r="F298" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="D298" s="152" t="s">
+      <c r="G298" s="152"/>
+      <c r="H298" s="153" t="s">
         <v>318</v>
       </c>
-      <c r="E298" s="154"/>
-      <c r="F298" s="152" t="s">
+      <c r="I298" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="G298" s="153"/>
-      <c r="H298" s="150" t="s">
+    </row>
+    <row r="299" spans="1:9">
+      <c r="B299" s="149"/>
+      <c r="C299" s="149"/>
+      <c r="D299" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E299" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I298" s="148" t="s">
+      <c r="F299" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="B299" s="156"/>
-      <c r="C299" s="156"/>
-      <c r="D299" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F299" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="G299" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H299" s="151"/>
-      <c r="I299" s="149"/>
+        <v>320</v>
+      </c>
+      <c r="H299" s="154"/>
+      <c r="I299" s="156"/>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B300" s="56" t="s">
         <v>0</v>
@@ -10295,13 +10290,13 @@
         <v>65</v>
       </c>
       <c r="D300" s="58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E300" s="61" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="58" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G300" s="125" t="s">
         <v>8</v>
@@ -10311,7 +10306,7 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B301" s="15" t="s">
         <v>6</v>
@@ -10320,23 +10315,23 @@
         <v>64</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E301" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G301" s="78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H301" s="74"/>
       <c r="I301" s="21"/>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B302" s="22" t="s">
         <v>9</v>
@@ -10345,13 +10340,13 @@
         <v>59</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E302" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F302" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G302" s="80" t="s">
         <v>2</v>
@@ -10360,281 +10355,11 @@
         <v>23</v>
       </c>
       <c r="I302" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="294">
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:H299"/>
-    <mergeCell ref="I298:I299"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:H293"/>
-    <mergeCell ref="I292:I293"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="H286:H287"/>
-    <mergeCell ref="I286:I287"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="H280:H281"/>
-    <mergeCell ref="I280:I281"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="D274:E274"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="I274:I275"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="F268:G268"/>
-    <mergeCell ref="H268:H269"/>
-    <mergeCell ref="I268:I269"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="H262:H263"/>
-    <mergeCell ref="I262:I263"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="H255:H256"/>
-    <mergeCell ref="I255:I256"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:H250"/>
-    <mergeCell ref="I249:I250"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="H237:H238"/>
-    <mergeCell ref="I237:I238"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="I231:I232"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="H225:H226"/>
-    <mergeCell ref="I225:I226"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="H219:H220"/>
-    <mergeCell ref="I219:I220"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:H202"/>
-    <mergeCell ref="I201:I202"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="H189:H190"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="I182:I183"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:H109"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="F3:G3"/>
@@ -10659,6 +10384,276 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="H189:H190"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="I182:I183"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:H202"/>
+    <mergeCell ref="I201:I202"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:H226"/>
+    <mergeCell ref="I225:I226"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:H220"/>
+    <mergeCell ref="I219:I220"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="H237:H238"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="H231:H232"/>
+    <mergeCell ref="I231:I232"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="H249:H250"/>
+    <mergeCell ref="I249:I250"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="H262:H263"/>
+    <mergeCell ref="I262:I263"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="H255:H256"/>
+    <mergeCell ref="I255:I256"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="D274:E274"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="I274:I275"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="H268:H269"/>
+    <mergeCell ref="I268:I269"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="H286:H287"/>
+    <mergeCell ref="I286:I287"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="I280:I281"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:H299"/>
+    <mergeCell ref="I298:I299"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:H293"/>
+    <mergeCell ref="I292:I293"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
